--- a/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
+++ b/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22</t>
+    <t>2025-01-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -909,6 +909,16 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1754,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3637,7 +3647,7 @@
         <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
@@ -4665,16 +4675,14 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>275</v>
@@ -4715,9 +4723,11 @@
         <v>286</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4729,28 +4739,28 @@
         <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4775,13 +4785,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4799,7 +4809,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4808,7 +4818,7 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>105</v>
@@ -4817,38 +4827,38 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -4863,16 +4873,16 @@
         <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4897,13 +4907,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4921,16 +4931,16 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>105</v>
@@ -4939,31 +4949,31 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4982,19 +4992,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5019,13 +5029,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5043,7 +5053,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5061,27 +5071,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5092,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5104,18 +5114,20 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5139,13 +5151,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5163,13 +5175,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5181,27 +5193,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>325</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5227,17 +5239,15 @@
         <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5264,10 +5274,10 @@
         <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5285,7 +5295,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5303,27 +5313,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5346,18 +5356,20 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5381,13 +5393,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5405,7 +5417,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5423,27 +5435,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5466,16 +5478,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5525,7 +5537,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5543,27 +5555,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5574,7 +5586,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5586,20 +5598,18 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5647,45 +5657,45 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5696,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5708,16 +5718,20 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5765,19 +5779,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5786,10 +5800,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5800,21 +5814,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5826,17 +5840,15 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5885,31 +5897,31 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5927,7 +5939,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5940,26 +5952,24 @@
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6007,7 +6017,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6031,7 +6041,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6042,42 +6052,46 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6125,19 +6139,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6146,10 +6160,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>382</v>
+        <v>136</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6160,10 +6174,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6186,13 +6200,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6243,7 +6257,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6252,7 +6266,7 @@
         <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6264,10 +6278,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6278,10 +6292,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6304,20 +6318,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6341,13 +6351,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6365,7 +6375,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6374,7 +6384,7 @@
         <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6383,13 +6393,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6400,10 +6410,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6414,7 +6424,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6429,16 +6439,16 @@
         <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6463,13 +6473,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6487,13 +6497,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6505,13 +6515,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6522,10 +6532,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6536,7 +6546,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6548,17 +6558,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>404</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6583,13 +6595,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6607,13 +6619,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6625,13 +6637,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6642,10 +6654,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6668,16 +6680,18 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6725,7 +6739,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6746,10 +6760,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6760,10 +6774,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6774,7 +6788,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6783,20 +6797,18 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>417</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6845,13 +6857,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6866,10 +6878,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6880,10 +6892,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6906,16 +6918,16 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6965,7 +6977,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6986,10 +6998,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7000,10 +7012,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7026,20 +7038,18 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7087,7 +7097,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7108,10 +7118,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7122,10 +7132,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7136,7 +7146,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7145,19 +7155,23 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7205,19 +7219,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7226,10 +7240,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7240,21 +7254,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7266,17 +7280,15 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7325,31 +7337,31 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7360,14 +7372,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7380,26 +7392,24 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7447,7 +7457,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7471,7 +7481,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7482,45 +7492,45 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7545,13 +7555,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7569,34 +7579,34 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -7604,10 +7614,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7615,7 +7625,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
@@ -7630,19 +7640,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7667,13 +7677,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7691,10 +7701,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>93</v>
@@ -7709,27 +7719,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7749,22 +7759,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7789,13 +7799,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7813,7 +7823,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7822,7 +7832,7 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -7831,38 +7841,38 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7877,16 +7887,16 @@
         <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7911,13 +7921,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7935,16 +7945,16 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -7953,31 +7963,31 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7996,19 +8006,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8033,13 +8043,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8057,7 +8067,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8075,23 +8085,145 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="P53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8101,7 +8233,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
